--- a/Forecasts/Mendocino.xlsx
+++ b/Forecasts/Mendocino.xlsx
@@ -887,7 +887,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-19 05:25:31"</t>
+    <t xml:space="preserve">[1] "2020-08-19 18:59:20"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Mendocino.xlsx
+++ b/Forecasts/Mendocino.xlsx
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:30:39"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:28:20"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Mendocino.xlsx
+++ b/Forecasts/Mendocino.xlsx
@@ -7478,7 +7478,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:35:57"</t>
+    <t xml:space="preserve">[1] "2021-04-20 12:02:31"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
